--- a/profile_links.xlsx
+++ b/profile_links.xlsx
@@ -19,12 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Profile Links</t>
-  </si>
-  <si>
-    <t>https://twitter.com/ShadowMst2265</t>
   </si>
   <si>
     <t>https://twitter.com/RBR_Daily</t>
@@ -345,10 +342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -360,11 +357,6 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
